--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H2">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J2">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N2">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P2">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q2">
-        <v>9.324114336098445</v>
+        <v>3.804090445224666</v>
       </c>
       <c r="R2">
-        <v>83.91702902488601</v>
+        <v>34.236814007022</v>
       </c>
       <c r="S2">
-        <v>0.01115314036807701</v>
+        <v>0.004370740824554762</v>
       </c>
       <c r="T2">
-        <v>0.01115314036807701</v>
+        <v>0.004370740824554763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H3">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J3">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>61.843018</v>
       </c>
       <c r="O3">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P3">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q3">
-        <v>134.8179578976076</v>
+        <v>94.28609200053268</v>
       </c>
       <c r="R3">
-        <v>1213.361621078468</v>
+        <v>848.5748280047941</v>
       </c>
       <c r="S3">
-        <v>0.161263960776214</v>
+        <v>0.1083307764177295</v>
       </c>
       <c r="T3">
-        <v>0.1612639607762139</v>
+        <v>0.1083307764177295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.540008666666668</v>
+        <v>4.573811</v>
       </c>
       <c r="H4">
-        <v>19.620026</v>
+        <v>13.721433</v>
       </c>
       <c r="I4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="J4">
-        <v>0.2365207520404831</v>
+        <v>0.1659009079913533</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N4">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P4">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q4">
-        <v>53.59116361775779</v>
+        <v>46.30228653764267</v>
       </c>
       <c r="R4">
-        <v>482.3204725598201</v>
+        <v>416.720578838784</v>
       </c>
       <c r="S4">
-        <v>0.06410365089619206</v>
+        <v>0.05319939074906908</v>
       </c>
       <c r="T4">
-        <v>0.06410365089619206</v>
+        <v>0.05319939074906908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J5">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N5">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O5">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P5">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q5">
-        <v>20.92199838317811</v>
+        <v>12.20524543642022</v>
       </c>
       <c r="R5">
-        <v>188.297985448603</v>
+        <v>109.847208927782</v>
       </c>
       <c r="S5">
-        <v>0.02502607500691656</v>
+        <v>0.01402331655117154</v>
       </c>
       <c r="T5">
-        <v>0.02502607500691657</v>
+        <v>0.01402331655117154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J6">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>61.843018</v>
       </c>
       <c r="O6">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P6">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q6">
         <v>302.5124956090349</v>
@@ -818,10 +818,10 @@
         <v>2722.612460481314</v>
       </c>
       <c r="S6">
-        <v>0.3618535986375129</v>
+        <v>0.3475742055912826</v>
       </c>
       <c r="T6">
-        <v>0.3618535986375129</v>
+        <v>0.3475742055912827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.5307192311682535</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="J7">
-        <v>0.5307192311682536</v>
+        <v>0.5322852674812913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N7">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O7">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P7">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q7">
-        <v>120.2510177532344</v>
+        <v>148.5587105766116</v>
       </c>
       <c r="R7">
-        <v>1082.25915977911</v>
+        <v>1337.028395189504</v>
       </c>
       <c r="S7">
-        <v>0.143839557523824</v>
+        <v>0.1706877453388372</v>
       </c>
       <c r="T7">
-        <v>0.143839557523824</v>
+        <v>0.1706877453388372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H8">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J8">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.425703666666666</v>
+        <v>0.8317113333333332</v>
       </c>
       <c r="N8">
-        <v>4.277111</v>
+        <v>2.495134</v>
       </c>
       <c r="O8">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="P8">
-        <v>0.04715501820393346</v>
+        <v>0.0263454906755698</v>
       </c>
       <c r="Q8">
-        <v>9.175858738443665</v>
+        <v>6.920559387059332</v>
       </c>
       <c r="R8">
-        <v>82.58272864599299</v>
+        <v>62.28503448353399</v>
       </c>
       <c r="S8">
-        <v>0.01097580282893988</v>
+        <v>0.0079514332998435</v>
       </c>
       <c r="T8">
-        <v>0.01097580282893988</v>
+        <v>0.007951433299843503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H9">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J9">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>61.843018</v>
       </c>
       <c r="O9">
-        <v>0.6818173855147049</v>
+        <v>0.6529848313028861</v>
       </c>
       <c r="P9">
-        <v>0.6818173855147048</v>
+        <v>0.6529848313028862</v>
       </c>
       <c r="Q9">
-        <v>132.6743208504593</v>
+        <v>171.5291758855353</v>
       </c>
       <c r="R9">
-        <v>1194.068887654134</v>
+        <v>1543.762582969818</v>
       </c>
       <c r="S9">
-        <v>0.158699826100978</v>
+        <v>0.197079849293874</v>
       </c>
       <c r="T9">
-        <v>0.158699826100978</v>
+        <v>0.1970798492938741</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.436020999999999</v>
+        <v>8.320867</v>
       </c>
       <c r="H10">
-        <v>19.308063</v>
+        <v>24.962601</v>
       </c>
       <c r="I10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="J10">
-        <v>0.2327600167912634</v>
+        <v>0.3018138245273554</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.194356666666666</v>
+        <v>10.12334933333333</v>
       </c>
       <c r="N10">
-        <v>24.58307</v>
+        <v>30.370048</v>
       </c>
       <c r="O10">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="P10">
-        <v>0.2710275962813615</v>
+        <v>0.3206696780215441</v>
       </c>
       <c r="Q10">
-        <v>52.73905158815666</v>
+        <v>84.23504339720533</v>
       </c>
       <c r="R10">
-        <v>474.6514642934099</v>
+        <v>758.115390574848</v>
       </c>
       <c r="S10">
-        <v>0.06308438786134546</v>
+        <v>0.09678254193363785</v>
       </c>
       <c r="T10">
-        <v>0.06308438786134546</v>
+        <v>0.09678254193363786</v>
       </c>
     </row>
   </sheetData>
